--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE33"/>
+  <dimension ref="A1:HG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1492,6 +1492,16 @@
       <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>2025-03</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05</t>
         </is>
       </c>
     </row>
@@ -1998,7 +2008,15 @@
       <c r="HD2" t="n">
         <v>41.992</v>
       </c>
-      <c r="HE2" t="inlineStr"/>
+      <c r="HE2" t="n">
+        <v>45.309</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>39.978</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>41.452</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2647,7 +2665,15 @@
       <c r="HD3" t="n">
         <v>1643.53</v>
       </c>
-      <c r="HE3" t="inlineStr"/>
+      <c r="HE3" t="n">
+        <v>1779.559</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1570.165</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>1628.075</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3008,7 +3034,15 @@
       <c r="HD4" t="n">
         <v>1.05</v>
       </c>
-      <c r="HE4" t="inlineStr"/>
+      <c r="HE4" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1.175</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3369,7 +3403,15 @@
       <c r="HD5" t="n">
         <v>41.11</v>
       </c>
-      <c r="HE5" t="inlineStr"/>
+      <c r="HE5" t="n">
+        <v>45.734</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>41.917</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>46.132</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3874,7 +3916,15 @@
       <c r="HD6" t="n">
         <v>652.6180000000001</v>
       </c>
-      <c r="HE6" t="inlineStr"/>
+      <c r="HE6" t="n">
+        <v>749.803</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>1341.252</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>1489.27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4523,7 +4573,15 @@
       <c r="HD7" t="n">
         <v>25543.013</v>
       </c>
-      <c r="HE7" t="inlineStr"/>
+      <c r="HE7" t="n">
+        <v>29449.118</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>52678.784</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>58492.312</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5028,7 +5086,15 @@
       <c r="HD8" t="n">
         <v>911.5170000000001</v>
       </c>
-      <c r="HE8" t="inlineStr"/>
+      <c r="HE8" t="n">
+        <v>646.579</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>481.173</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>536.1420000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5677,7 +5743,15 @@
       <c r="HD9" t="n">
         <v>35676.147</v>
       </c>
-      <c r="HE9" t="inlineStr"/>
+      <c r="HE9" t="n">
+        <v>25394.88</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>18898.473</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>21057.465</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5958,7 +6032,15 @@
       <c r="HD10" t="n">
         <v>0</v>
       </c>
-      <c r="HE10" t="inlineStr"/>
+      <c r="HE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6239,7 +6321,15 @@
       <c r="HD11" t="n">
         <v>0</v>
       </c>
-      <c r="HE11" t="inlineStr"/>
+      <c r="HE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6744,7 +6834,15 @@
       <c r="HD12" t="n">
         <v>-1214.308</v>
       </c>
-      <c r="HE12" t="inlineStr"/>
+      <c r="HE12" t="n">
+        <v>-637.942</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>365.415</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>597.141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7393,7 +7491,15 @@
       <c r="HD13" t="n">
         <v>-47527.211</v>
       </c>
-      <c r="HE13" t="inlineStr"/>
+      <c r="HE13" t="n">
+        <v>-24423.649</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>14351.996</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>23453.207</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7730,7 +7836,15 @@
       <c r="HD14" t="n">
         <v>0</v>
       </c>
-      <c r="HE14" t="inlineStr"/>
+      <c r="HE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -8067,7 +8181,15 @@
       <c r="HD15" t="n">
         <v>0</v>
       </c>
-      <c r="HE15" t="inlineStr"/>
+      <c r="HE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8572,7 +8694,15 @@
       <c r="HD16" t="n">
         <v>999.086</v>
       </c>
-      <c r="HE16" t="inlineStr"/>
+      <c r="HE16" t="n">
+        <v>768.746</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>530.492</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>411.122</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -9101,7 +9231,15 @@
       <c r="HD17" t="n">
         <v>39103.572</v>
       </c>
-      <c r="HE17" t="inlineStr"/>
+      <c r="HE17" t="n">
+        <v>30193.138</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>20835.514</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>16147.139</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9606,7 +9744,15 @@
       <c r="HD18" t="n">
         <v>998.451</v>
       </c>
-      <c r="HE18" t="inlineStr"/>
+      <c r="HE18" t="n">
+        <v>787.639</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>535.7089999999999</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>398.614</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -10255,7 +10401,15 @@
       <c r="HD19" t="n">
         <v>39078.717</v>
       </c>
-      <c r="HE19" t="inlineStr"/>
+      <c r="HE19" t="n">
+        <v>30303.18</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>21040.397</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>15655.847</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10760,7 +10914,15 @@
       <c r="HD20" t="n">
         <v>320.886</v>
       </c>
-      <c r="HE20" t="inlineStr"/>
+      <c r="HE20" t="n">
+        <v>200.168</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>100.473</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>9.295</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -11337,7 +11499,15 @@
       <c r="HD21" t="n">
         <v>12559.253</v>
       </c>
-      <c r="HE21" t="inlineStr"/>
+      <c r="HE21" t="n">
+        <v>7861.762</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>3946.174</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>365.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11842,7 +12012,15 @@
       <c r="HD22" t="n">
         <v>9.023999999999999</v>
       </c>
-      <c r="HE22" t="inlineStr"/>
+      <c r="HE22" t="n">
+        <v>9.563000000000001</v>
+      </c>
+      <c r="HF22" t="n">
+        <v>12.853</v>
+      </c>
+      <c r="HG22" t="n">
+        <v>15.797</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -12491,7 +12669,15 @@
       <c r="HD23" t="n">
         <v>353.212</v>
       </c>
-      <c r="HE23" t="inlineStr"/>
+      <c r="HE23" t="n">
+        <v>375.576</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>504.815</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>620.421</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -12828,7 +13014,15 @@
       <c r="HD24" t="n">
         <v>0</v>
       </c>
-      <c r="HE24" t="inlineStr"/>
+      <c r="HE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -13165,7 +13359,15 @@
       <c r="HD25" t="n">
         <v>0</v>
       </c>
-      <c r="HE25" t="inlineStr"/>
+      <c r="HE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -13502,7 +13704,15 @@
       <c r="HD26" t="n">
         <v>0</v>
       </c>
-      <c r="HE26" t="inlineStr"/>
+      <c r="HE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13839,7 +14049,15 @@
       <c r="HD27" t="n">
         <v>0</v>
       </c>
-      <c r="HE27" t="inlineStr"/>
+      <c r="HE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -14079,6 +14297,8 @@
       <c r="HC28" t="inlineStr"/>
       <c r="HD28" t="inlineStr"/>
       <c r="HE28" t="inlineStr"/>
+      <c r="HF28" t="inlineStr"/>
+      <c r="HG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -14318,6 +14538,8 @@
       <c r="HC29" t="inlineStr"/>
       <c r="HD29" t="inlineStr"/>
       <c r="HE29" t="inlineStr"/>
+      <c r="HF29" t="inlineStr"/>
+      <c r="HG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14592,7 +14814,15 @@
       <c r="HD30" t="n">
         <v>290.001</v>
       </c>
-      <c r="HE30" t="inlineStr"/>
+      <c r="HE30" t="n">
+        <v>213.251</v>
+      </c>
+      <c r="HF30" t="n">
+        <v>121.392</v>
+      </c>
+      <c r="HG30" t="n">
+        <v>89.786</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -14867,7 +15097,15 @@
       <c r="HD31" t="n">
         <v>11350.46</v>
       </c>
-      <c r="HE31" t="inlineStr"/>
+      <c r="HE31" t="n">
+        <v>8375.614</v>
+      </c>
+      <c r="HF31" t="n">
+        <v>4767.773</v>
+      </c>
+      <c r="HG31" t="n">
+        <v>3526.422</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -15228,7 +15466,15 @@
       <c r="HD32" t="n">
         <v>-0.635</v>
       </c>
-      <c r="HE32" t="inlineStr"/>
+      <c r="HE32" t="n">
+        <v>18.893</v>
+      </c>
+      <c r="HF32" t="n">
+        <v>5.217</v>
+      </c>
+      <c r="HG32" t="n">
+        <v>-12.508</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -15589,7 +15835,15 @@
       <c r="HD33" t="n">
         <v>-24.855</v>
       </c>
-      <c r="HE33" t="inlineStr"/>
+      <c r="HE33" t="n">
+        <v>110.042</v>
+      </c>
+      <c r="HF33" t="n">
+        <v>204.883</v>
+      </c>
+      <c r="HG33" t="n">
+        <v>-491.292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
